--- a/biology/Zoologie/Coccinella/Coccinella.xlsx
+++ b/biology/Zoologie/Coccinella/Coccinella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coccinella est un genre de coléoptères prédateurs de la famille des coccinellidés, dont les larves et les adultes ont pour proies principalement des pucerons aussi bien sur les arbres fruitiers, la vigne, les grandes cultures, les cultures légumières et les cultures ornementales que sur des plantes sauvages.
 Ce genre comprend les espèces suivantes :
@@ -512,7 +524,9 @@
           <t>Espèces présentes en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Coccinella (Chelonitis) venusta (Weise 1879)
 Coccinella (Chelonitis) venusta adalioides (Sicard 1907)
@@ -565,7 +579,9 @@
           <t>Autres espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Coccinella arcula Erichson, 1847
 Coccinella californica Mannerheim, 1843
